--- a/MidiMic.xlsx
+++ b/MidiMic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tboggess\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4ADE529D-C74C-4224-A38B-E6801CA65BF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D812C3-D6B1-4314-B6BD-960975067883}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{B39938C8-E622-4D76-BC33-B091A1D76809}"/>
   </bookViews>
@@ -420,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -521,6 +521,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -838,7 +839,7 @@
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1031,7 +1032,9 @@
       <c r="F8" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="3">
+        <v>103.214</v>
+      </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="12"/>
@@ -1053,7 +1056,9 @@
       <c r="F9" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="3">
+        <v>111.15300000000001</v>
+      </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="12"/>
@@ -1075,7 +1080,9 @@
       <c r="F10" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="3">
+        <v>119.093</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="12"/>
@@ -1097,8 +1104,12 @@
       <c r="F11" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
+      <c r="G11" s="14">
+        <v>127.033</v>
+      </c>
+      <c r="H11" s="14">
+        <v>262.005</v>
+      </c>
       <c r="I11" s="14"/>
       <c r="J11" s="15"/>
     </row>
@@ -1117,7 +1128,9 @@
         <v>134.97200000000001</v>
       </c>
       <c r="F12" s="49"/>
-      <c r="G12" s="26"/>
+      <c r="G12" s="26">
+        <v>134.97200000000001</v>
+      </c>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
       <c r="J12" s="28"/>
@@ -1137,7 +1150,9 @@
         <v>142.91200000000001</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="2"/>
+      <c r="G13" s="2">
+        <v>142.91200000000001</v>
+      </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="12"/>
@@ -1157,7 +1172,9 @@
         <v>150.851</v>
       </c>
       <c r="F14" s="6"/>
-      <c r="G14" s="2"/>
+      <c r="G14" s="2">
+        <v>150.851</v>
+      </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="12"/>
@@ -1177,7 +1194,9 @@
         <v>158.791</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="2"/>
+      <c r="G15" s="2">
+        <v>158.791</v>
+      </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="12"/>
@@ -1197,7 +1216,9 @@
         <v>166.73</v>
       </c>
       <c r="F16" s="6"/>
-      <c r="G16" s="2"/>
+      <c r="G16" s="2">
+        <v>166.73</v>
+      </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="12"/>
@@ -1217,7 +1238,9 @@
         <v>174.67</v>
       </c>
       <c r="F17" s="6"/>
-      <c r="G17" s="2"/>
+      <c r="G17" s="2">
+        <v>174.67</v>
+      </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="12"/>
@@ -1237,8 +1260,12 @@
         <v>182.60900000000001</v>
       </c>
       <c r="F18" s="6"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="3"/>
+      <c r="G18" s="2">
+        <v>182.60900000000001</v>
+      </c>
+      <c r="H18" s="52">
+        <v>190.54900000000001</v>
+      </c>
       <c r="I18" s="3"/>
       <c r="J18" s="12"/>
     </row>
@@ -1257,7 +1284,9 @@
         <v>198.488</v>
       </c>
       <c r="F19" s="6"/>
-      <c r="G19" s="2"/>
+      <c r="G19" s="2">
+        <v>198.488</v>
+      </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="12"/>
@@ -1277,8 +1306,12 @@
         <v>206.428</v>
       </c>
       <c r="F20" s="6"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="3"/>
+      <c r="G20" s="2">
+        <v>206.428</v>
+      </c>
+      <c r="H20" s="52">
+        <v>214.36699999999999</v>
+      </c>
       <c r="I20" s="3"/>
       <c r="J20" s="12"/>
     </row>
@@ -1297,7 +1330,9 @@
         <v>222.30699999999999</v>
       </c>
       <c r="F21" s="6"/>
-      <c r="G21" s="2"/>
+      <c r="G21" s="2">
+        <v>222.30699999999999</v>
+      </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="12"/>
@@ -1317,7 +1352,9 @@
         <v>230.24600000000001</v>
       </c>
       <c r="F22" s="6"/>
-      <c r="G22" s="2"/>
+      <c r="G22" s="2">
+        <v>238.18600000000001</v>
+      </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="12"/>
@@ -1337,8 +1374,12 @@
         <v>246.126</v>
       </c>
       <c r="F23" s="8"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="14"/>
+      <c r="G23" s="13">
+        <v>246.126</v>
+      </c>
+      <c r="H23" s="14">
+        <v>254.065</v>
+      </c>
       <c r="I23" s="14"/>
       <c r="J23" s="15"/>
     </row>
@@ -1357,7 +1398,9 @@
         <v>262.005</v>
       </c>
       <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
+      <c r="G24" s="26">
+        <v>262.005</v>
+      </c>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
       <c r="J24" s="28"/>
@@ -1377,7 +1420,9 @@
         <v>277.88400000000001</v>
       </c>
       <c r="F25" s="6"/>
-      <c r="G25" s="2"/>
+      <c r="G25" s="2">
+        <v>277.88400000000001</v>
+      </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="12"/>
@@ -1397,7 +1442,9 @@
         <v>293.76299999999998</v>
       </c>
       <c r="F26" s="6"/>
-      <c r="G26" s="2"/>
+      <c r="G26" s="2">
+        <v>293.76299999999998</v>
+      </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="12"/>
@@ -1417,7 +1464,9 @@
         <v>309.642</v>
       </c>
       <c r="F27" s="6"/>
-      <c r="G27" s="2"/>
+      <c r="G27" s="2">
+        <v>309.642</v>
+      </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="12"/>
@@ -1437,7 +1486,9 @@
         <v>333.46</v>
       </c>
       <c r="F28" s="6"/>
-      <c r="G28" s="2"/>
+      <c r="G28" s="2">
+        <v>333.46</v>
+      </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="12"/>
@@ -1457,7 +1508,9 @@
         <v>349.339</v>
       </c>
       <c r="F29" s="6"/>
-      <c r="G29" s="2"/>
+      <c r="G29" s="2">
+        <v>349.339</v>
+      </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="12"/>
@@ -1477,7 +1530,9 @@
         <v>373.15800000000002</v>
       </c>
       <c r="F30" s="6"/>
-      <c r="G30" s="2"/>
+      <c r="G30" s="2">
+        <v>373.15800000000002</v>
+      </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="12"/>
@@ -1497,7 +1552,9 @@
         <v>396.97699999999998</v>
       </c>
       <c r="F31" s="6"/>
-      <c r="G31" s="2"/>
+      <c r="G31" s="2">
+        <v>389.03699999999998</v>
+      </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="12"/>
@@ -1517,7 +1574,9 @@
         <v>412.85599999999999</v>
       </c>
       <c r="F32" s="6"/>
-      <c r="G32" s="2"/>
+      <c r="G32" s="2">
+        <v>412.85599999999999</v>
+      </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="12"/>
@@ -1537,7 +1596,9 @@
         <v>444.61399999999998</v>
       </c>
       <c r="F33" s="6"/>
-      <c r="G33" s="2"/>
+      <c r="G33" s="2">
+        <v>436.67399999999998</v>
+      </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="12"/>
